--- a/TestExcelData/TestData_Multiple.xlsx
+++ b/TestExcelData/TestData_Multiple.xlsx
@@ -11,12 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>#Multiple</t>
   </si>
   <si>
-    <t>#1</t>
+    <t>#Group1</t>
+  </si>
+  <si>
+    <t>#Index</t>
   </si>
   <si>
     <t>#String</t>
@@ -26,6 +29,9 @@
   </si>
   <si>
     <t>#Float</t>
+  </si>
+  <si>
+    <t>#EOL</t>
   </si>
   <si>
     <t>阿我就文字阿</t>
@@ -55,7 +61,7 @@
     <t>789.17</t>
   </si>
   <si>
-    <t>#2</t>
+    <t>#Group2</t>
   </si>
   <si>
     <t>C123</t>
@@ -115,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -127,6 +133,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,7 +417,7 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -414,7 +426,12 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -438,16 +455,18 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="4">
+        <v>1.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -472,16 +491,18 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+      <c r="A5" s="4">
+        <v>2.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -506,16 +527,18 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
+      <c r="A6" s="4">
+        <v>3.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -597,7 +620,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -626,7 +649,7 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -635,8 +658,12 @@
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -660,16 +687,18 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -694,16 +723,18 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
+      <c r="A12" s="4">
+        <v>2.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -728,16 +759,18 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
+      <c r="A13" s="4">
+        <v>3.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -763,7 +796,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
